--- a/master.xlsx
+++ b/master.xlsx
@@ -380,8 +380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -403,399 +403,178 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>50</v>
-      </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>221.4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>41.8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>60</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>41.8</v>
-      </c>
-      <c r="B6" s="1">
-        <v>58</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>41.8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>50</v>
-      </c>
-      <c r="C7" s="1">
-        <v>5</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>142</v>
-      </c>
-      <c r="B8" s="1">
-        <v>40</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>31.8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>40</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>83</v>
-      </c>
-      <c r="B10" s="1">
-        <v>60</v>
-      </c>
-      <c r="C10" s="1">
-        <v>2</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>56.8</v>
-      </c>
-      <c r="B11" s="1">
-        <v>60</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>60</v>
-      </c>
-      <c r="B12" s="1">
-        <v>7</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>145</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>60</v>
-      </c>
-      <c r="B14" s="1">
-        <v>62</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>51</v>
-      </c>
-      <c r="B15" s="3">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>4</v>
-      </c>
+      <c r="A15" s="1"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>50</v>
-      </c>
-      <c r="B16" s="1">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>82</v>
-      </c>
-      <c r="B17" s="3">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>65</v>
-      </c>
-      <c r="B18" s="3">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>82</v>
-      </c>
-      <c r="B19" s="3">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>78.8</v>
-      </c>
-      <c r="B20" s="3">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>58.4</v>
-      </c>
-      <c r="B21" s="3">
-        <v>40</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>51.8</v>
-      </c>
-      <c r="B22" s="3">
-        <v>40</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>220</v>
-      </c>
-      <c r="B23" s="3">
-        <v>44.5</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>70.2</v>
-      </c>
-      <c r="B24" s="3">
-        <v>40</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>59.5</v>
-      </c>
-      <c r="B25" s="3">
-        <v>18</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>42.5</v>
-      </c>
-      <c r="B26" s="3">
-        <v>59.5</v>
-      </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>290</v>
-      </c>
-      <c r="B27" s="3">
-        <v>8</v>
-      </c>
-      <c r="C27" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>143</v>
-      </c>
-      <c r="B28" s="3">
-        <v>8</v>
-      </c>
-      <c r="C28" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>143</v>
-      </c>
-      <c r="B29" s="3">
-        <v>8</v>
-      </c>
-      <c r="C29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>154</v>
-      </c>
-      <c r="B30" s="3">
-        <v>56</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>288</v>
-      </c>
-      <c r="B31" s="3">
-        <v>60</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>198</v>
-      </c>
-      <c r="B32" s="3">
-        <v>70.2</v>
-      </c>
-      <c r="C32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>74</v>
-      </c>
-      <c r="B33" s="3">
-        <v>70.2</v>
-      </c>
-      <c r="C33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C48" s="1"/>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.2">

--- a/master.xlsx
+++ b/master.xlsx
@@ -381,7 +381,7 @@
   <dimension ref="A1:C64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -403,13 +403,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
